--- a/biology/Botanique/Melanoselinum_annuum/Melanoselinum_annuum.xlsx
+++ b/biology/Botanique/Melanoselinum_annuum/Melanoselinum_annuum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daucus annuus est une espèce de plantes à fleurs de la famille des Apiaceae et du genre Daucus, endémique du Cap-Vert.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est initialement décrite dans le genre Tornabenea par Augusto Béguinot en 1918, sous le basionyme Tornabenea annua. Elle a également été classée dans les genres Melanoselinum et Thapsia. Cependant le nom correct est Daucus annuus, choisi par A. Wojewódzka, Jean-Pierre Reduron, Łukasz Banasiak et Krzysztof Spalik en 2016[2],[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est initialement décrite dans le genre Tornabenea par Augusto Béguinot en 1918, sous le basionyme Tornabenea annua. Elle a également été classée dans les genres Melanoselinum et Thapsia. Cependant le nom correct est Daucus annuus, choisi par A. Wojewódzka, Jean-Pierre Reduron, Łukasz Banasiak et Krzysztof Spalik en 2016.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle herbacée pouvant atteindre environ 40 cm de haut avec des racines fusiformes subcarnées à l'odeur et à la couleur de carotte. La tige est ramifiée, généralement violette et glabre ou sous-glabre à la base, devenant grossièrement sillonnée à angulaire et rétrogradement rugueuse à hispide vers l'apex. Les feuilles sont 2–3 pénatipartites avec les segments ou lobes ovo-lancéolés, aigus, mucronés à l'apex, sous-glabre à hispide sur les deux faces[6]. 
-Appareil reproducteur
-Les ombelles sont terminales et latérales, peu profondes ; les pédoncules mesurent de 5 à 18 cm de long, profondément sillonnés, rétrogradement rugueux à hispides. Il y a 6 à 8 bractées, linéaires-lancéolées à linéaires-oblancéolées, de 6-12(-17) mm de long, avec bords membraneux involutés, en règle générale sub-érigées sur le fruit ; les rayons sont généralement par 20-30 (rarement plus), rugueux à hispiduleux, jusqu'à 25 mm de long, congestionnés et sub-érigés dans le fruit ; les bractéoles sont au nombre de 6-8 par ombellule, mesurant jusqu'à 6 mm de long, lancéolées, avec des bords membraneux. Les lobes du calice sont sous-nuls. Les pétales sont blancs, ceux des fleurs périphériques mesurant 1 mm de long ; les anthères, de 0,3–0,4 mm de long, sont jaunes ; l'ovaire est minutieusement scabreux ; le stylopode est conique ; les styles, de 0,3 mm de long, sont érigés, de jusqu'à 1 mm de long et sub-érigés dans le fruit. Le fruit est de dimensions allant jusqu'à 4,0 X 3,0 mm, de forme elliptique à largement elliptique en projection dorsale, généralement avec des ailes et un dos secondaire fortement denté, parfois ce dernier étroitement ailé[6].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle herbacée pouvant atteindre environ 40 cm de haut avec des racines fusiformes subcarnées à l'odeur et à la couleur de carotte. La tige est ramifiée, généralement violette et glabre ou sous-glabre à la base, devenant grossièrement sillonnée à angulaire et rétrogradement rugueuse à hispide vers l'apex. Les feuilles sont 2–3 pénatipartites avec les segments ou lobes ovo-lancéolés, aigus, mucronés à l'apex, sous-glabre à hispide sur les deux faces. 
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est endémique du Cap-Vert. On la trouve sur les pentes sub-humides des îles Fogo et Santiago, entre 350 et 800 m d'altitude (contre 130 m sur l'île Fogo), et elle peut envahir les cultures[7]. L'espèce est vulnérable[8].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ombelles sont terminales et latérales, peu profondes ; les pédoncules mesurent de 5 à 18 cm de long, profondément sillonnés, rétrogradement rugueux à hispides. Il y a 6 à 8 bractées, linéaires-lancéolées à linéaires-oblancéolées, de 6-12(-17) mm de long, avec bords membraneux involutés, en règle générale sub-érigées sur le fruit ; les rayons sont généralement par 20-30 (rarement plus), rugueux à hispiduleux, jusqu'à 25 mm de long, congestionnés et sub-érigés dans le fruit ; les bractéoles sont au nombre de 6-8 par ombellule, mesurant jusqu'à 6 mm de long, lancéolées, avec des bords membraneux. Les lobes du calice sont sous-nuls. Les pétales sont blancs, ceux des fleurs périphériques mesurant 1 mm de long ; les anthères, de 0,3–0,4 mm de long, sont jaunes ; l'ovaire est minutieusement scabreux ; le stylopode est conique ; les styles, de 0,3 mm de long, sont érigés, de jusqu'à 1 mm de long et sub-érigés dans le fruit. Le fruit est de dimensions allant jusqu'à 4,0 X 3,0 mm, de forme elliptique à largement elliptique en projection dorsale, généralement avec des ailes et un dos secondaire fortement denté, parfois ce dernier étroitement ailé.
 </t>
         </is>
       </c>
@@ -604,12 +627,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Cap-Vert. On la trouve sur les pentes sub-humides des îles Fogo et Santiago, entre 350 et 800 m d'altitude (contre 130 m sur l'île Fogo), et elle peut envahir les cultures. L'espèce est vulnérable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Melanoselinum_annuum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melanoselinum_annuum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Composants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huiles essentielles de Daucus annuus sont dominées par la bymyristicine (92-100%)[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huiles essentielles de Daucus annuus sont dominées par la bymyristicine (92-100%).
 </t>
         </is>
       </c>
